--- a/Courtney/new_date_data.xlsx
+++ b/Courtney/new_date_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>dates</t>
   </si>
@@ -45,75 +45,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>6 K cooling</t>
-  </si>
-  <si>
-    <t>3hpa</t>
-  </si>
-  <si>
-    <t>could be a synotic front based on long duration, continual pressure rise, continual falling temperature</t>
-  </si>
-  <si>
-    <t>4 K cooling</t>
-  </si>
-  <si>
-    <t>3 hPa</t>
-  </si>
-  <si>
-    <t>Strong updraft followed by rain, enters cold pool, then exits cold pool, also with an updraft around 900. Most of the data is characterized by continual downdraft, which is presumably rain detection by the lidar. We should look at this case with radar data too</t>
-  </si>
-  <si>
-    <t>7 K cooling</t>
-  </si>
-  <si>
-    <t>1 hpa</t>
-  </si>
-  <si>
-    <t>updraft then rain, need radar data for this too</t>
-  </si>
-  <si>
-    <t>next day, need to modify script</t>
-  </si>
-  <si>
-    <t>strong updrafts for a long time…</t>
-  </si>
-  <si>
-    <t>orgranized head and updraft… all flow afterward has negative velocity suggesting small rain? Maybe remove a hydrometeor fall speed?</t>
-  </si>
-  <si>
-    <t>impacts CBL development, generates clouds, don't see any precip though</t>
-  </si>
-  <si>
-    <t>2-3 k of warming</t>
-  </si>
-  <si>
-    <t>1.5 hpa</t>
-  </si>
-  <si>
-    <t>Nocturnal event associated with surface warming, but increase in surface pressure. Some bore characteristics.</t>
-  </si>
-  <si>
-    <t>two in one night!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCEPTIONAL CASE WITH OUT CLOUDS!!!!! </t>
-  </si>
-  <si>
-    <t>EXCEPTIONAL CASE with cloud</t>
-  </si>
-  <si>
-    <t>very stron gupdraft followed by rain</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>nice case with shelf cloud likely</t>
-  </si>
-  <si>
-    <t>case starts at 2350 and extends to next day, organized updraft with cloud</t>
   </si>
 </sst>
 </file>
@@ -157,10 +88,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,299 +408,465 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
+        <v>40694</v>
+      </c>
+      <c r="B2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>40706</v>
+      </c>
+      <c r="B3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>40710</v>
+      </c>
+      <c r="B4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>40726</v>
+      </c>
+      <c r="B5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>40727</v>
+      </c>
+      <c r="B6">
+        <v>2250</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>40737</v>
+      </c>
+      <c r="B7">
+        <v>315</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>40759</v>
+      </c>
+      <c r="B8">
+        <v>958</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>40765</v>
+      </c>
+      <c r="B9">
+        <v>1115</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>40774</v>
+      </c>
+      <c r="B10">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>40775</v>
+      </c>
+      <c r="B11">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>41030</v>
+      </c>
+      <c r="B12">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>41036</v>
+      </c>
+      <c r="B13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>41060</v>
+      </c>
+      <c r="B14">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>41063</v>
+      </c>
+      <c r="B15">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>41076</v>
+      </c>
+      <c r="B16">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>41104</v>
+      </c>
+      <c r="B17">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>41125</v>
+      </c>
+      <c r="B18">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>41129</v>
+      </c>
+      <c r="B19">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>41137</v>
+      </c>
+      <c r="B20">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>41139</v>
+      </c>
+      <c r="B21">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>41395</v>
       </c>
-      <c r="B2">
+      <c r="B22">
         <v>2113</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>41403</v>
       </c>
-      <c r="B3">
+      <c r="B23">
         <v>650</v>
       </c>
-      <c r="C3">
-        <v>900</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>41409</v>
+      </c>
+      <c r="B24">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>41425</v>
+      </c>
+      <c r="B25">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>41430</v>
+      </c>
+      <c r="B26">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>41440</v>
+      </c>
+      <c r="B27">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>41442</v>
+      </c>
+      <c r="B28">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>41465</v>
+      </c>
+      <c r="B29" s="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>41476</v>
+      </c>
+      <c r="B30" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>41478</v>
+      </c>
+      <c r="B31" s="1">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>41409</v>
-      </c>
-      <c r="B4">
-        <v>2008</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>41478</v>
+      </c>
+      <c r="B32" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>41479</v>
+      </c>
+      <c r="B33" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>41485</v>
+      </c>
+      <c r="B34" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>41489</v>
+      </c>
+      <c r="B35" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>41492</v>
+      </c>
+      <c r="B36" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>41493</v>
+      </c>
+      <c r="B37" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>41499</v>
+      </c>
+      <c r="B38" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>41500</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>41502</v>
+      </c>
+      <c r="B40" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>42096</v>
+      </c>
+      <c r="B41">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>42131</v>
+      </c>
+      <c r="B42">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42140</v>
+      </c>
+      <c r="B43">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>42141</v>
+      </c>
+      <c r="B44">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>42149</v>
+      </c>
+      <c r="B45">
         <v>2200</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>2200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>41425</v>
-      </c>
-      <c r="B5">
-        <v>2320</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>41430</v>
-      </c>
-      <c r="B6">
-        <v>808</v>
-      </c>
-      <c r="C6">
-        <v>805</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>41440</v>
-      </c>
-      <c r="B7">
-        <v>1837</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>41442</v>
-      </c>
-      <c r="B8">
-        <v>609</v>
-      </c>
-      <c r="C8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>41465</v>
-      </c>
-      <c r="B9" s="3">
-        <v>547</v>
-      </c>
-      <c r="C9" s="3">
-        <v>730</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1750</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>41478</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>41478</v>
-      </c>
-      <c r="B11" s="3">
-        <v>348</v>
-      </c>
-      <c r="C11" s="3">
-        <v>330</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>41479</v>
-      </c>
-      <c r="B12" s="3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>42152</v>
+      </c>
+      <c r="B46">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>42163</v>
+      </c>
+      <c r="B47">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B48">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>42206</v>
+      </c>
+      <c r="B49" s="4">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>42215</v>
+      </c>
+      <c r="B50">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>42216</v>
+      </c>
+      <c r="B51">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>42221</v>
+      </c>
+      <c r="B52">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>42234</v>
+      </c>
+      <c r="B53">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>42238</v>
+      </c>
+      <c r="B54">
         <v>335</v>
       </c>
-      <c r="C12" s="3">
-        <v>330</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>41485</v>
-      </c>
-      <c r="B13" s="3">
-        <v>123</v>
-      </c>
-      <c r="C13" s="4">
-        <v>130</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>41489</v>
-      </c>
-      <c r="B14" s="3">
-        <v>455</v>
-      </c>
-      <c r="C14" s="4">
-        <v>445</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>41492</v>
-      </c>
-      <c r="B15" s="3">
-        <v>358</v>
-      </c>
-      <c r="C15" s="4">
-        <v>330</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>41493</v>
-      </c>
-      <c r="B16" s="3">
-        <v>437</v>
-      </c>
-      <c r="C16" s="4">
-        <v>330</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>41499</v>
-      </c>
-      <c r="B17" s="3">
-        <v>323</v>
-      </c>
-      <c r="C17" s="4">
-        <v>300</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>41500</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4">
-        <v>2300</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>41502</v>
-      </c>
-      <c r="C19" s="4">
-        <v>230</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>28</v>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>42239</v>
+      </c>
+      <c r="B55">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>42243</v>
+      </c>
+      <c r="B56">
+        <v>1630</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>